--- a/pred_ohlcv/54_21/2020-01-14 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 APIS ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-7775495.145499999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7773772.767799999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>63882.69430000032</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>39354.09180000032</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-763538.8627999997</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-2670852.4802</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5000898.236</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-5000069.5085</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16415262.91059335</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22013726.49779335</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-21506433.14509335</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-20364932.98449335</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-20643986.47089335</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19686087.63939335</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-18960892.09689335</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-18960048.18689335</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-19449847.12779335</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-23094400.97399335</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-25243478.17309336</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 APIS ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-7775495.145499999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7773772.767799999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6287804.681299998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>63882.69430000032</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>39354.09180000032</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-764360.0104999996</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-763538.8627999997</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16415262.91059335</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22013726.49779335</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-21506433.14509335</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-20364932.98449335</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19686087.63939335</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-18960892.09689335</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-18960048.18689335</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-19449847.12779335</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-21147056.57319335</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-21137838.75319335</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-23719407.97969335</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-23089535.25299335</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-24363126.50309335</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-25243478.17309336</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-26243225.79859335</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-24639412.30619335</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-24066625.54719335</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-24065794.63869335</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
